--- a/other/input/2021_wqx_data/summer_2021_wqx_data/SGS/KRBWQM_SGS_bottle_order_Summer_2021.xlsx
+++ b/other/input/2021_wqx_data/summer_2021_wqx_data/SGS/KRBWQM_SGS_bottle_order_Summer_2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_BOR_WaterSMART\kenai-river-wqx-report\other\input\2021_wqx_data\summer_2021_wqx_data\SGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\OneDrive\Documents\GitHub_Local\kenai-river-wqx\other\input\2021_wqx_data\summer_2021_wqx_data\SGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D6D3B0-3496-43B1-AE0F-2ED34AEC6398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690"/>
+    <workbookView xWindow="28920" yWindow="-6915" windowWidth="9630" windowHeight="11295" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bottles_analyses_summer_2021" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,18 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="124">
   <si>
     <t>Cooler name</t>
   </si>
@@ -339,12 +334,81 @@
   </si>
   <si>
     <t>No further sites upstream for dissolved metals</t>
+  </si>
+  <si>
+    <t>monitoring_location_id</t>
+  </si>
+  <si>
+    <t>KR RM 0 NNC</t>
+  </si>
+  <si>
+    <t>KR RM 1.5</t>
+  </si>
+  <si>
+    <t>KR RM 6.5</t>
+  </si>
+  <si>
+    <t>KR RM 10 BC</t>
+  </si>
+  <si>
+    <t>KR RM 10.1</t>
+  </si>
+  <si>
+    <t>KR RM 12.5</t>
+  </si>
+  <si>
+    <t>KR RM 18</t>
+  </si>
+  <si>
+    <t>KR RM 21</t>
+  </si>
+  <si>
+    <t>KR RM 19 SC</t>
+  </si>
+  <si>
+    <t>KR RM 22 SOC</t>
+  </si>
+  <si>
+    <t>KR RM 23</t>
+  </si>
+  <si>
+    <t>KR RM 30 FR</t>
+  </si>
+  <si>
+    <t>KR RM 31</t>
+  </si>
+  <si>
+    <t>KR RM 36</t>
+  </si>
+  <si>
+    <t>KR RM 40</t>
+  </si>
+  <si>
+    <t>KR RM 43</t>
+  </si>
+  <si>
+    <t>KR RM 44</t>
+  </si>
+  <si>
+    <t>KR RM 50</t>
+  </si>
+  <si>
+    <t>KR RM 70</t>
+  </si>
+  <si>
+    <t>KR RM 74</t>
+  </si>
+  <si>
+    <t>KR RM 82</t>
+  </si>
+  <si>
+    <t>KR RM 79.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,11 +639,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,16 +661,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -618,85 +680,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,8 +752,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -739,9 +783,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Benjamin Meyer" refreshedDate="44389.573061689814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="146">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Benjamin Meyer" refreshedDate="44389.573061689814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="146" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C1:H1048576" sheet="bottles_analyses_summer_2021"/>
+    <worksheetSource ref="D1:I1048576" sheet="bottles_analyses_summer_2021"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Analysis 1" numFmtId="0">
@@ -1956,7 +2000,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2033,6 +2077,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2334,3709 +2381,3780 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="14" style="43" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="14" style="43" customWidth="1"/>
-    <col min="10" max="10" width="14" style="46" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="40.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="14" style="35" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" style="35" customWidth="1"/>
+    <col min="11" max="11" width="14" style="36" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="36" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="40.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="38" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14" s="32" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="40">
-        <v>1</v>
-      </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="33">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="33"/>
+      <c r="N2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="C3" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="43" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="D3" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="44">
-        <v>1</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="J3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="C4" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="D4" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="44">
-        <v>1</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="35">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="J4" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="C5" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="43" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="D5" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="44">
-        <v>1</v>
-      </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="J5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="45" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="C6" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="43" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="D6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="44">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="J6" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="C7" s="39"/>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="D7" s="33"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="40">
-        <v>1</v>
-      </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="I8" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="J8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="1" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="33"/>
+      <c r="N8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="C9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="43" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="D9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="44">
-        <v>1</v>
-      </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="35">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="J9" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="C10" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="43" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="D10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="44">
-        <v>1</v>
-      </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="35">
+        <v>1</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="H10" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="J10" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="C11" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="43" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="D11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="44">
-        <v>1</v>
-      </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="35">
+        <v>1</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="H11" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="J11" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="C12" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="43" t="s">
+      <c r="K11" s="34"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="D12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="44">
-        <v>1</v>
-      </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="J12" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="C13" s="39"/>
-      <c r="E13" s="44">
-        <v>1</v>
-      </c>
-      <c r="K13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="1" t="s">
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="35">
+        <v>1</v>
+      </c>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="40">
-        <v>1</v>
-      </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="H14" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="I14" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="J14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="1" t="s">
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="33"/>
+      <c r="N14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="C15" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="43" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="D15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="44">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="35">
+        <v>1</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="H15" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="J15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="C16" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="43" t="s">
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="D16" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="44">
-        <v>1</v>
-      </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="35">
+        <v>1</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="H16" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="J16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="C17" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="43" t="s">
+      <c r="K16" s="34"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="D17" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="44">
-        <v>1</v>
-      </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="H17" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="J17" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="C18" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="43" t="s">
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="D18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="44">
-        <v>1</v>
-      </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="35">
+        <v>1</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="H18" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="J18" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="C19" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="43" t="s">
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="D19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="44">
+      <c r="F19" s="35">
         <v>3</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="G19" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="H19" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="J19" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="M19" s="41"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="C20" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="43" t="s">
+      <c r="K19" s="35"/>
+      <c r="L19" s="33"/>
+      <c r="N19" s="33"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="D20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="44">
+      <c r="F20" s="35">
         <v>3</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="G20" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="H20" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="J20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="M20" s="41"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="C21" s="39"/>
-      <c r="K21" s="42"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="C22" s="39" t="s">
+      <c r="K20" s="35"/>
+      <c r="L20" s="33"/>
+      <c r="N20" s="33"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="D21" s="33"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="D22" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="44">
+      <c r="F22" s="35">
         <v>7</v>
       </c>
-      <c r="K22" s="42"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="C23" s="39" t="s">
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="D23" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="44">
+      <c r="F23" s="35">
         <v>20</v>
       </c>
-      <c r="K23" s="42"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="C24" s="39" t="s">
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="D24" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="44">
+      <c r="F24" s="35">
         <v>4</v>
       </c>
-      <c r="K24" s="42"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="C25" s="39" t="s">
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="D25" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="44">
-        <v>1</v>
-      </c>
-      <c r="K25" s="42"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="C26" s="39" t="s">
+      <c r="F25" s="35">
+        <v>1</v>
+      </c>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="D26" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="44">
-        <v>1</v>
-      </c>
-      <c r="K26" s="42"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="C27" s="39" t="s">
+      <c r="F26" s="35">
+        <v>1</v>
+      </c>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="D27" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="44">
-        <v>1</v>
-      </c>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="C28" s="39" t="s">
+      <c r="F27" s="35">
+        <v>1</v>
+      </c>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="D28" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="44">
-        <v>1</v>
-      </c>
-      <c r="G28" s="33" t="s">
+      <c r="F28" s="35">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="42"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="C29" s="39" t="s">
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="D29" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="44">
-        <v>1</v>
-      </c>
-      <c r="K29" s="42"/>
-    </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="48"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="F29" s="35">
+        <v>1</v>
+      </c>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="57"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="40">
-        <v>1</v>
-      </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="H31" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="I31" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="J31" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="1" t="s">
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="33"/>
+      <c r="N31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="C32" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="43" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="D32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="44">
-        <v>1</v>
-      </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="35">
+        <v>1</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="H32" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="J32" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="41"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="C33" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="43" t="s">
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="D33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="44">
-        <v>1</v>
-      </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="35">
+        <v>1</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="H33" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="J33" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="42"/>
-      <c r="L33" s="41"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="C34" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="K33" s="34"/>
+      <c r="M33" s="33"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="D34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="44">
-        <v>1</v>
-      </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="35">
+        <v>1</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="H34" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="J34" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="41"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="C35" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="43" t="s">
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="33"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="D35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="44">
-        <v>1</v>
-      </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="J35" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="K35" s="42"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="C36" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="43" t="s">
+      <c r="L35" s="34"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="D36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="44">
+      <c r="F36" s="35">
         <v>3</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="G36" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="H36" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="J36" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="42"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="C37" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="43" t="s">
+      <c r="L36" s="34"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="D37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="44">
+      <c r="F37" s="35">
         <v>3</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="G37" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="H37" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="J37" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K37" s="42"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="39"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="1" t="s">
+      <c r="L37" s="34"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="40">
-        <v>1</v>
-      </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="33">
+        <v>1</v>
+      </c>
+      <c r="G39" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="H39" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="I39" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="41" t="s">
+      <c r="J39" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="1" t="s">
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="33"/>
+      <c r="N39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="C40" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="43" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="D40" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="44">
-        <v>1</v>
-      </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="35">
+        <v>1</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="H40" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="41" t="s">
+      <c r="J40" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="41"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="C41" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="43" t="s">
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="33"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="D41" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="44">
-        <v>1</v>
-      </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="35">
+        <v>1</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="H41" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="41" t="s">
+      <c r="J41" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="41"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="C42" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="43" t="s">
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="33"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="D42" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="44">
-        <v>1</v>
-      </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="35">
+        <v>1</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="H42" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="J42" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="C43" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="43" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="D43" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="44">
-        <v>1</v>
-      </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="35">
+        <v>1</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="H43" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="J43" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="42"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="C44" s="39"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="1" t="s">
+      <c r="L43" s="34"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="44">
-        <v>1</v>
-      </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="35">
+        <v>1</v>
+      </c>
+      <c r="G45" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="H45" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="I45" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="41" t="s">
+      <c r="J45" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="1" t="s">
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="33"/>
+      <c r="N45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="C46" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="43" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="D46" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="44">
-        <v>1</v>
-      </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="35">
+        <v>1</v>
+      </c>
+      <c r="G46" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="H46" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="41" t="s">
+      <c r="J46" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="41"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="C47" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="43" t="s">
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="33"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="D47" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="44">
-        <v>1</v>
-      </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="35">
+        <v>1</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="H47" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="41" t="s">
+      <c r="J47" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="41"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="C48" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="43" t="s">
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="33"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="D48" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="44">
-        <v>1</v>
-      </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="35">
+        <v>1</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="H48" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="J48" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="C49" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="43" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="D49" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="44">
-        <v>1</v>
-      </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="35">
+        <v>1</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="H49" t="s">
         <v>63</v>
       </c>
-      <c r="I49" s="43" t="s">
+      <c r="J49" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="K49" s="42"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="C50" s="39"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="1" t="s">
+      <c r="L49" s="34"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="44">
-        <v>1</v>
-      </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="35">
+        <v>1</v>
+      </c>
+      <c r="G51" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="H51" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="I51" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="41" t="s">
+      <c r="J51" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="1" t="s">
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="33"/>
+      <c r="N51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="C52" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="43" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="D52" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="44">
-        <v>1</v>
-      </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="35">
+        <v>1</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="H52" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="41" t="s">
+      <c r="J52" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="41"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="C53" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="43" t="s">
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="D53" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="44">
-        <v>1</v>
-      </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="35">
+        <v>1</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="H53" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="41" t="s">
+      <c r="J53" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="41"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="C54" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="43" t="s">
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="D54" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="44">
-        <v>1</v>
-      </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="35">
+        <v>1</v>
+      </c>
+      <c r="G54" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="H54" t="s">
         <v>91</v>
       </c>
-      <c r="I54" s="43" t="s">
+      <c r="J54" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="C55" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="43" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="D55" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="44">
-        <v>1</v>
-      </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="35">
+        <v>1</v>
+      </c>
+      <c r="G55" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="H55" t="s">
         <v>63</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="J55" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="K55" s="42"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="1" t="s">
+      <c r="L55" s="34"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="D56" s="33"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="44">
-        <v>1</v>
-      </c>
-      <c r="F57" s="41" t="s">
+      <c r="F57" s="35">
+        <v>1</v>
+      </c>
+      <c r="G57" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="33" t="s">
+      <c r="H57" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="33" t="s">
+      <c r="I57" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="41" t="s">
+      <c r="J57" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="1" t="s">
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="33"/>
+      <c r="N57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="C58" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="43" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="D58" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="44">
-        <v>1</v>
-      </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="35">
+        <v>1</v>
+      </c>
+      <c r="G58" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="H58" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="41" t="s">
+      <c r="J58" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="41"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="C59" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="43" t="s">
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="33"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="D59" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="44">
-        <v>1</v>
-      </c>
-      <c r="F59" s="43" t="s">
+      <c r="F59" s="35">
+        <v>1</v>
+      </c>
+      <c r="G59" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="H59" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="41" t="s">
+      <c r="J59" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="41"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="C60" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="43" t="s">
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="33"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="D60" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="44">
-        <v>1</v>
-      </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="35">
+        <v>1</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="33" t="s">
+      <c r="H60" t="s">
         <v>91</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="J60" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="C61" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="43" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="D61" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="44">
-        <v>1</v>
-      </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="35">
+        <v>1</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="H61" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="43" t="s">
+      <c r="J61" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="C62" s="39"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="C63" s="39" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="D62" s="33"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="D63" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="44">
+      <c r="F63" s="35">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="C64" s="39" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="D64" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="44">
+      <c r="F64" s="35">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="C65" s="39" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="D65" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="44">
+      <c r="F65" s="35">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="C66" s="39" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="D66" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="C67" s="39" t="s">
+      <c r="F66" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="D67" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="C68" s="39" t="s">
+      <c r="F67" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="D68" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="C69" s="39" t="s">
+      <c r="F68" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="D69" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="C70" s="39" t="s">
+      <c r="F69" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="D70" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="56"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="54" t="s">
+      <c r="F70" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="42"/>
+      <c r="B71" s="57"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="44">
-        <v>1</v>
-      </c>
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="35">
+        <v>1</v>
+      </c>
+      <c r="G72" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="H72" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="I72" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="41" t="s">
+      <c r="J72" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="1" t="s">
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="33"/>
+      <c r="N72" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="C73" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="43" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="D73" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="44">
-        <v>1</v>
-      </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="35">
+        <v>1</v>
+      </c>
+      <c r="G73" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="33" t="s">
+      <c r="H73" t="s">
         <v>6</v>
       </c>
-      <c r="I73" s="41" t="s">
+      <c r="J73" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="41"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="C74" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="43" t="s">
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="33"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="D74" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E74" s="44">
-        <v>1</v>
-      </c>
-      <c r="F74" s="43" t="s">
+      <c r="F74" s="35">
+        <v>1</v>
+      </c>
+      <c r="G74" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G74" s="33" t="s">
+      <c r="H74" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="41" t="s">
+      <c r="J74" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="41"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="C75" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="43" t="s">
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="33"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="D75" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="44">
-        <v>1</v>
-      </c>
-      <c r="F75" s="43" t="s">
+      <c r="F75" s="35">
+        <v>1</v>
+      </c>
+      <c r="G75" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="H75" t="s">
         <v>91</v>
       </c>
-      <c r="I75" s="43" t="s">
+      <c r="J75" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="C76" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76" s="43" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+      <c r="D76" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E76" s="44">
-        <v>1</v>
-      </c>
-      <c r="F76" s="43" t="s">
+      <c r="F76" s="35">
+        <v>1</v>
+      </c>
+      <c r="G76" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G76" s="33" t="s">
+      <c r="H76" t="s">
         <v>63</v>
       </c>
-      <c r="I76" s="43" t="s">
+      <c r="J76" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="C77" s="39"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
-      <c r="B78" s="1" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="D77" s="33"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E78" s="44">
-        <v>1</v>
-      </c>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="35">
+        <v>1</v>
+      </c>
+      <c r="G78" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="H78" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="33" t="s">
+      <c r="I78" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="41" t="s">
+      <c r="J78" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="41"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
-      <c r="C79" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="43" t="s">
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="33"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+      <c r="D79" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E79" s="44">
-        <v>1</v>
-      </c>
-      <c r="F79" s="43" t="s">
+      <c r="F79" s="35">
+        <v>1</v>
+      </c>
+      <c r="G79" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G79" s="33" t="s">
+      <c r="H79" t="s">
         <v>6</v>
       </c>
-      <c r="I79" s="41" t="s">
+      <c r="J79" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="41"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
-      <c r="C80" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" s="43" t="s">
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="33"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="41"/>
+      <c r="D80" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E80" s="44">
-        <v>1</v>
-      </c>
-      <c r="F80" s="43" t="s">
+      <c r="F80" s="35">
+        <v>1</v>
+      </c>
+      <c r="G80" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="H80" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="41" t="s">
+      <c r="J80" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="41"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
-      <c r="C81" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="43" t="s">
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="33"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="41"/>
+      <c r="D81" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E81" s="44">
-        <v>1</v>
-      </c>
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="35">
+        <v>1</v>
+      </c>
+      <c r="G81" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="H81" t="s">
         <v>91</v>
       </c>
-      <c r="I81" s="43" t="s">
+      <c r="J81" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="C82" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="43" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="D82" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E82" s="44">
-        <v>1</v>
-      </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="35">
+        <v>1</v>
+      </c>
+      <c r="G82" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="H82" t="s">
         <v>63</v>
       </c>
-      <c r="I82" s="43" t="s">
+      <c r="J82" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="39"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="1" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="33"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="41"/>
+      <c r="B84" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="44">
-        <v>1</v>
-      </c>
-      <c r="F84" s="41" t="s">
+      <c r="F84" s="35">
+        <v>1</v>
+      </c>
+      <c r="G84" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G84" s="33" t="s">
+      <c r="H84" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="I84" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="41" t="s">
+      <c r="J84" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="1" t="s">
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="33"/>
+      <c r="N84" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="C85" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" s="43" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="41"/>
+      <c r="D85" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="44">
-        <v>1</v>
-      </c>
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="35">
+        <v>1</v>
+      </c>
+      <c r="G85" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="H85" t="s">
         <v>6</v>
       </c>
-      <c r="I85" s="41" t="s">
+      <c r="J85" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="41"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="C86" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" s="43" t="s">
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="33"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="41"/>
+      <c r="D86" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="44">
-        <v>1</v>
-      </c>
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="35">
+        <v>1</v>
+      </c>
+      <c r="G86" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="H86" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="41" t="s">
+      <c r="J86" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="41"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-      <c r="C87" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="43" t="s">
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="33"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
+      <c r="D87" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="44">
-        <v>1</v>
-      </c>
-      <c r="F87" s="43" t="s">
+      <c r="F87" s="35">
+        <v>1</v>
+      </c>
+      <c r="G87" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="H87" t="s">
         <v>91</v>
       </c>
-      <c r="I87" s="43" t="s">
+      <c r="J87" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="C88" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" s="43" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="41"/>
+      <c r="D88" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="44">
-        <v>1</v>
-      </c>
-      <c r="F88" s="43" t="s">
+      <c r="F88" s="35">
+        <v>1</v>
+      </c>
+      <c r="G88" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="H88" t="s">
         <v>63</v>
       </c>
-      <c r="I88" s="43" t="s">
+      <c r="J88" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="C89" s="39"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="1" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="41"/>
+      <c r="D89" s="33"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="41"/>
+      <c r="B90" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="39" t="s">
+      <c r="D90" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E90" s="44">
-        <v>1</v>
-      </c>
-      <c r="F90" s="41" t="s">
+      <c r="F90" s="35">
+        <v>1</v>
+      </c>
+      <c r="G90" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="H90" t="s">
         <v>42</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="I90" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="41" t="s">
+      <c r="J90" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="41"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="C91" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="43" t="s">
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="33"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="41"/>
+      <c r="D91" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E91" s="44">
-        <v>1</v>
-      </c>
-      <c r="F91" s="43" t="s">
+      <c r="F91" s="35">
+        <v>1</v>
+      </c>
+      <c r="G91" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G91" s="33" t="s">
+      <c r="H91" t="s">
         <v>6</v>
       </c>
-      <c r="I91" s="41" t="s">
+      <c r="J91" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="41"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="C92" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" s="43" t="s">
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="33"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
+      <c r="D92" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E92" s="44">
-        <v>1</v>
-      </c>
-      <c r="F92" s="43" t="s">
+      <c r="F92" s="35">
+        <v>1</v>
+      </c>
+      <c r="G92" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G92" s="33" t="s">
+      <c r="H92" t="s">
         <v>7</v>
       </c>
-      <c r="I92" s="41" t="s">
+      <c r="J92" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="41"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="C93" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="43" t="s">
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="33"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="41"/>
+      <c r="D93" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="44">
-        <v>1</v>
-      </c>
-      <c r="F93" s="43" t="s">
+      <c r="F93" s="35">
+        <v>1</v>
+      </c>
+      <c r="G93" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="H93" t="s">
         <v>91</v>
       </c>
-      <c r="I93" s="43" t="s">
+      <c r="J93" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
-      <c r="C94" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" s="43" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="41"/>
+      <c r="D94" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E94" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E94" s="44">
-        <v>1</v>
-      </c>
-      <c r="F94" s="43" t="s">
+      <c r="F94" s="35">
+        <v>1</v>
+      </c>
+      <c r="G94" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="H94" t="s">
         <v>63</v>
       </c>
-      <c r="I94" s="43" t="s">
+      <c r="J94" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
-      <c r="C95" s="39"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="C96" s="39" t="s">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="41"/>
+      <c r="D95" s="33"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="41"/>
+      <c r="D96" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E96" s="44">
+      <c r="F96" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="C97" s="39" t="s">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+      <c r="D97" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E97" s="44">
+      <c r="F97" s="35">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="C98" s="39" t="s">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+      <c r="D98" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="44">
+      <c r="F98" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="C99" s="39" t="s">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="41"/>
+      <c r="D99" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E99" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
-      <c r="C100" s="39" t="s">
+      <c r="F99" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="41"/>
+      <c r="D100" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E100" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
-      <c r="C101" s="39" t="s">
+      <c r="F100" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="41"/>
+      <c r="D101" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
-      <c r="C102" s="39" t="s">
+      <c r="F101" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+      <c r="D102" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E102" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
-      <c r="C103" s="39" t="s">
+      <c r="F102" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="41"/>
+      <c r="D103" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E103" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="50"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="48"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="54" t="s">
+      <c r="F103" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="42"/>
+      <c r="B104" s="57"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="39"/>
+      <c r="M104" s="38"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" t="s">
         <v>23</v>
       </c>
-      <c r="C105" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E105" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="44">
-        <v>1</v>
-      </c>
-      <c r="F105" s="41" t="s">
+      <c r="F105" s="35">
+        <v>1</v>
+      </c>
+      <c r="G105" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="H105" t="s">
         <v>42</v>
       </c>
-      <c r="H105" s="33" t="s">
+      <c r="I105" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="41" t="s">
+      <c r="J105" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J105" s="42"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="41"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="C106" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D106" s="43" t="s">
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="33"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
+      <c r="D106" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E106" s="44">
-        <v>1</v>
-      </c>
-      <c r="F106" s="43" t="s">
+      <c r="F106" s="35">
+        <v>1</v>
+      </c>
+      <c r="G106" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G106" s="33" t="s">
+      <c r="H106" t="s">
         <v>6</v>
       </c>
-      <c r="I106" s="41" t="s">
+      <c r="J106" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J106" s="42"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="41"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
-      <c r="C107" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D107" s="43" t="s">
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="33"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+      <c r="D107" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E107" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E107" s="44">
-        <v>1</v>
-      </c>
-      <c r="F107" s="43" t="s">
+      <c r="F107" s="35">
+        <v>1</v>
+      </c>
+      <c r="G107" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="H107" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="41" t="s">
+      <c r="J107" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="1" t="s">
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="33"/>
+      <c r="N107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="C108" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D108" s="43" t="s">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="41"/>
+      <c r="D108" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E108" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E108" s="44">
-        <v>1</v>
-      </c>
-      <c r="F108" s="43" t="s">
+      <c r="F108" s="35">
+        <v>1</v>
+      </c>
+      <c r="G108" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="H108" t="s">
         <v>91</v>
       </c>
-      <c r="I108" s="43" t="s">
+      <c r="J108" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="C109" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D109" s="43" t="s">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="D109" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E109" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E109" s="44">
-        <v>1</v>
-      </c>
-      <c r="F109" s="43" t="s">
+      <c r="F109" s="35">
+        <v>1</v>
+      </c>
+      <c r="G109" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="H109" t="s">
         <v>63</v>
       </c>
-      <c r="I109" s="43" t="s">
+      <c r="J109" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="C110" s="39"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
-      <c r="B111" s="1" t="s">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="41"/>
+      <c r="D110" s="33"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="41"/>
+      <c r="B111" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D111" s="39" t="s">
+      <c r="D111" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="44">
-        <v>1</v>
-      </c>
-      <c r="F111" s="41" t="s">
+      <c r="F111" s="35">
+        <v>1</v>
+      </c>
+      <c r="G111" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="H111" t="s">
         <v>42</v>
       </c>
-      <c r="H111" s="33" t="s">
+      <c r="I111" t="s">
         <v>5</v>
       </c>
-      <c r="I111" s="41" t="s">
+      <c r="J111" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J111" s="42"/>
-      <c r="K111" s="42"/>
-      <c r="L111" s="41"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="C112" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D112" s="43" t="s">
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="33"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="41"/>
+      <c r="D112" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E112" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E112" s="44">
-        <v>1</v>
-      </c>
-      <c r="F112" s="43" t="s">
+      <c r="F112" s="35">
+        <v>1</v>
+      </c>
+      <c r="G112" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G112" s="33" t="s">
+      <c r="H112" t="s">
         <v>6</v>
       </c>
-      <c r="I112" s="41" t="s">
+      <c r="J112" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J112" s="42"/>
-      <c r="K112" s="42"/>
-      <c r="L112" s="41"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="C113" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" s="43" t="s">
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="33"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="41"/>
+      <c r="D113" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E113" s="44">
-        <v>1</v>
-      </c>
-      <c r="F113" s="43" t="s">
+      <c r="F113" s="35">
+        <v>1</v>
+      </c>
+      <c r="G113" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="H113" t="s">
         <v>91</v>
       </c>
-      <c r="I113" s="43" t="s">
+      <c r="J113" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
-      <c r="C114" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D114" s="43" t="s">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="41"/>
+      <c r="D114" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E114" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E114" s="44">
-        <v>1</v>
-      </c>
-      <c r="F114" s="43" t="s">
+      <c r="F114" s="35">
+        <v>1</v>
+      </c>
+      <c r="G114" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G114" s="33" t="s">
+      <c r="H114" t="s">
         <v>63</v>
       </c>
-      <c r="I114" s="43" t="s">
+      <c r="J114" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
-      <c r="C115" s="39"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
-      <c r="B116" s="1" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="41"/>
+      <c r="D115" s="33"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="41"/>
+      <c r="B116" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
         <v>25</v>
       </c>
-      <c r="C116" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D116" s="39" t="s">
+      <c r="D116" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E116" s="44">
-        <v>1</v>
-      </c>
-      <c r="F116" s="41" t="s">
+      <c r="F116" s="35">
+        <v>1</v>
+      </c>
+      <c r="G116" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="33" t="s">
+      <c r="H116" t="s">
         <v>42</v>
       </c>
-      <c r="H116" s="33" t="s">
+      <c r="I116" t="s">
         <v>5</v>
       </c>
-      <c r="I116" s="41" t="s">
+      <c r="J116" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="41"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
-      <c r="C117" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D117" s="43" t="s">
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="33"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+      <c r="D117" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E117" s="44">
-        <v>1</v>
-      </c>
-      <c r="F117" s="43" t="s">
+      <c r="F117" s="35">
+        <v>1</v>
+      </c>
+      <c r="G117" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="33" t="s">
+      <c r="H117" t="s">
         <v>6</v>
       </c>
-      <c r="I117" s="41" t="s">
+      <c r="J117" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J117" s="42"/>
-      <c r="K117" s="42"/>
-      <c r="L117" s="41"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
-      <c r="C118" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D118" s="43" t="s">
+      <c r="K117" s="34"/>
+      <c r="L117" s="34"/>
+      <c r="M117" s="33"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="41"/>
+      <c r="D118" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E118" s="44">
-        <v>1</v>
-      </c>
-      <c r="F118" s="43" t="s">
+      <c r="F118" s="35">
+        <v>1</v>
+      </c>
+      <c r="G118" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="H118" t="s">
         <v>91</v>
       </c>
-      <c r="I118" s="43" t="s">
+      <c r="J118" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
-      <c r="C119" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D119" s="43" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="41"/>
+      <c r="D119" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E119" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E119" s="44">
-        <v>1</v>
-      </c>
-      <c r="F119" s="43" t="s">
+      <c r="F119" s="35">
+        <v>1</v>
+      </c>
+      <c r="G119" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="H119" t="s">
         <v>63</v>
       </c>
-      <c r="I119" s="43" t="s">
+      <c r="J119" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
-      <c r="C120" s="39"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
-      <c r="B121" s="1" t="s">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="41"/>
+      <c r="D120" s="33"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="41"/>
+      <c r="B121" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" t="s">
         <v>26</v>
       </c>
-      <c r="C121" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D121" s="39" t="s">
+      <c r="D121" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E121" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="44">
-        <v>1</v>
-      </c>
-      <c r="F121" s="41" t="s">
+      <c r="F121" s="35">
+        <v>1</v>
+      </c>
+      <c r="G121" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="H121" t="s">
         <v>42</v>
       </c>
-      <c r="H121" s="33" t="s">
+      <c r="I121" t="s">
         <v>5</v>
       </c>
-      <c r="I121" s="41" t="s">
+      <c r="J121" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J121" s="42"/>
-      <c r="K121" s="42"/>
-      <c r="L121" s="41"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
-      <c r="C122" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D122" s="43" t="s">
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
+      <c r="M121" s="33"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+      <c r="D122" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E122" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E122" s="44">
-        <v>1</v>
-      </c>
-      <c r="F122" s="43" t="s">
+      <c r="F122" s="35">
+        <v>1</v>
+      </c>
+      <c r="G122" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G122" s="33" t="s">
+      <c r="H122" t="s">
         <v>6</v>
       </c>
-      <c r="I122" s="41" t="s">
+      <c r="J122" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="41"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
-      <c r="C123" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D123" s="43" t="s">
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="33"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="41"/>
+      <c r="D123" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E123" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="44">
-        <v>1</v>
-      </c>
-      <c r="F123" s="43" t="s">
+      <c r="F123" s="35">
+        <v>1</v>
+      </c>
+      <c r="G123" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G123" s="33" t="s">
+      <c r="H123" t="s">
         <v>91</v>
       </c>
-      <c r="I123" s="43" t="s">
+      <c r="J123" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
-      <c r="C124" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D124" s="43" t="s">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="41"/>
+      <c r="D124" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E124" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E124" s="44">
-        <v>1</v>
-      </c>
-      <c r="F124" s="43" t="s">
+      <c r="F124" s="35">
+        <v>1</v>
+      </c>
+      <c r="G124" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G124" s="33" t="s">
+      <c r="H124" t="s">
         <v>63</v>
       </c>
-      <c r="I124" s="43" t="s">
+      <c r="J124" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
-      <c r="C125" s="39"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
-      <c r="C126" s="39" t="s">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+      <c r="D125" s="33"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="41"/>
+      <c r="D126" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E126" s="44">
+      <c r="F126" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
-      <c r="C127" s="39" t="s">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="41"/>
+      <c r="D127" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E127" s="44">
+      <c r="F127" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
-      <c r="C128" s="39" t="s">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="41"/>
+      <c r="D128" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E128" s="44">
+      <c r="F128" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
-      <c r="C129" s="39" t="s">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="41"/>
+      <c r="D129" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E129" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="55"/>
-      <c r="C130" s="39" t="s">
+      <c r="F129" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="41"/>
+      <c r="D130" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E130" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
-      <c r="C131" s="39" t="s">
+      <c r="F130" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+      <c r="D131" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E131" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
-      <c r="C132" s="39" t="s">
+      <c r="F131" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="D132" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E132" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
-      <c r="C133" s="39" t="s">
+      <c r="F132" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="D133" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E133" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="56"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="48"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="48"/>
-      <c r="J134" s="50"/>
-      <c r="K134" s="50"/>
-      <c r="L134" s="48"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="54" t="s">
+      <c r="F133" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="42"/>
+      <c r="B134" s="57"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="J134" s="38"/>
+      <c r="K134" s="39"/>
+      <c r="L134" s="39"/>
+      <c r="M134" s="38"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" t="s">
         <v>28</v>
       </c>
-      <c r="C135" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D135" s="39" t="s">
+      <c r="D135" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E135" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E135" s="40">
-        <v>1</v>
-      </c>
-      <c r="F135" s="41" t="s">
+      <c r="F135" s="33">
+        <v>1</v>
+      </c>
+      <c r="G135" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="H135" t="s">
         <v>42</v>
       </c>
-      <c r="H135" s="33" t="s">
+      <c r="I135" t="s">
         <v>5</v>
       </c>
-      <c r="I135" s="41" t="s">
+      <c r="J135" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J135" s="42"/>
-      <c r="K135" s="42"/>
-      <c r="L135" s="41"/>
-      <c r="M135" s="1" t="s">
+      <c r="K135" s="34"/>
+      <c r="L135" s="34"/>
+      <c r="M135" s="33"/>
+      <c r="N135" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
-      <c r="C136" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D136" s="43" t="s">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="D136" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E136" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E136" s="44">
-        <v>1</v>
-      </c>
-      <c r="F136" s="43" t="s">
+      <c r="F136" s="35">
+        <v>1</v>
+      </c>
+      <c r="G136" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G136" s="33" t="s">
+      <c r="H136" t="s">
         <v>6</v>
       </c>
-      <c r="I136" s="41" t="s">
+      <c r="J136" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J136" s="42"/>
-      <c r="K136" s="42"/>
-      <c r="L136" s="41"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
-      <c r="C137" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D137" s="43" t="s">
+      <c r="K136" s="34"/>
+      <c r="L136" s="34"/>
+      <c r="M136" s="33"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="D137" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E137" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E137" s="44">
-        <v>1</v>
-      </c>
-      <c r="F137" s="43" t="s">
+      <c r="F137" s="35">
+        <v>1</v>
+      </c>
+      <c r="G137" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G137" s="33" t="s">
+      <c r="H137" t="s">
         <v>91</v>
       </c>
-      <c r="I137" s="43" t="s">
+      <c r="J137" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="55"/>
-      <c r="C138" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D138" s="43" t="s">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="D138" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E138" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E138" s="44">
-        <v>1</v>
-      </c>
-      <c r="F138" s="43" t="s">
+      <c r="F138" s="35">
+        <v>1</v>
+      </c>
+      <c r="G138" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G138" s="33" t="s">
+      <c r="H138" t="s">
         <v>63</v>
       </c>
-      <c r="I138" s="43" t="s">
+      <c r="J138" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
-      <c r="C139" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D139" s="43" t="s">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+      <c r="D139" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E139" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E139" s="44">
+      <c r="F139" s="35">
         <v>3</v>
       </c>
-      <c r="F139" s="43" t="s">
+      <c r="G139" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G139" s="33" t="s">
+      <c r="H139" t="s">
         <v>10</v>
       </c>
-      <c r="I139" s="41" t="s">
+      <c r="J139" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
-      <c r="C140" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D140" s="43" t="s">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="41"/>
+      <c r="D140" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E140" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E140" s="44">
+      <c r="F140" s="35">
         <v>3</v>
       </c>
-      <c r="F140" s="43" t="s">
+      <c r="G140" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G140" s="33" t="s">
+      <c r="H140" t="s">
         <v>43</v>
       </c>
-      <c r="I140" s="41" t="s">
+      <c r="J140" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
-      <c r="C141" s="39"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="55"/>
-      <c r="B142" s="1" t="s">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="41"/>
+      <c r="D141" s="33"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="41"/>
+      <c r="B142" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" t="s">
         <v>29</v>
       </c>
-      <c r="C142" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D142" s="39" t="s">
+      <c r="D142" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E142" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E142" s="40">
-        <v>1</v>
-      </c>
-      <c r="F142" s="41" t="s">
+      <c r="F142" s="33">
+        <v>1</v>
+      </c>
+      <c r="G142" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G142" s="33" t="s">
+      <c r="H142" t="s">
         <v>42</v>
       </c>
-      <c r="H142" s="33" t="s">
+      <c r="I142" t="s">
         <v>5</v>
       </c>
-      <c r="I142" s="41" t="s">
+      <c r="J142" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J142" s="42"/>
-      <c r="K142" s="42"/>
-      <c r="L142" s="41"/>
-      <c r="M142" s="1" t="s">
+      <c r="K142" s="34"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="33"/>
+      <c r="N142" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
-      <c r="C143" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D143" s="43" t="s">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="41"/>
+      <c r="D143" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E143" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E143" s="44">
-        <v>1</v>
-      </c>
-      <c r="F143" s="43" t="s">
+      <c r="F143" s="35">
+        <v>1</v>
+      </c>
+      <c r="G143" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G143" s="33" t="s">
+      <c r="H143" t="s">
         <v>6</v>
       </c>
-      <c r="I143" s="41" t="s">
+      <c r="J143" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J143" s="42"/>
-      <c r="K143" s="42"/>
-      <c r="L143" s="41"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
-      <c r="C144" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D144" s="43" t="s">
+      <c r="K143" s="34"/>
+      <c r="L143" s="34"/>
+      <c r="M143" s="33"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="41"/>
+      <c r="D144" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E144" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E144" s="44">
-        <v>1</v>
-      </c>
-      <c r="F144" s="43" t="s">
+      <c r="F144" s="35">
+        <v>1</v>
+      </c>
+      <c r="G144" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G144" s="33" t="s">
+      <c r="H144" t="s">
         <v>91</v>
       </c>
-      <c r="I144" s="43" t="s">
+      <c r="J144" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
-      <c r="C145" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D145" s="43" t="s">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="41"/>
+      <c r="D145" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E145" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E145" s="44">
-        <v>1</v>
-      </c>
-      <c r="F145" s="43" t="s">
+      <c r="F145" s="35">
+        <v>1</v>
+      </c>
+      <c r="G145" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G145" s="33" t="s">
+      <c r="H145" t="s">
         <v>63</v>
       </c>
-      <c r="I145" s="43" t="s">
+      <c r="J145" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="55"/>
-      <c r="C146" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D146" s="43" t="s">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="41"/>
+      <c r="D146" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E146" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E146" s="44">
+      <c r="F146" s="35">
         <v>3</v>
       </c>
-      <c r="F146" s="43" t="s">
+      <c r="G146" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G146" s="33" t="s">
+      <c r="H146" t="s">
         <v>10</v>
       </c>
-      <c r="I146" s="41" t="s">
+      <c r="J146" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
-      <c r="C147" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D147" s="43" t="s">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="41"/>
+      <c r="D147" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E147" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E147" s="44">
+      <c r="F147" s="35">
         <v>3</v>
       </c>
-      <c r="F147" s="43" t="s">
+      <c r="G147" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="33" t="s">
+      <c r="H147" t="s">
         <v>43</v>
       </c>
-      <c r="I147" s="41" t="s">
+      <c r="J147" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
-      <c r="C148" s="39"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="55"/>
-      <c r="B149" s="1" t="s">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="41"/>
+      <c r="D148" s="33"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="41"/>
+      <c r="B149" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" t="s">
         <v>79</v>
       </c>
-      <c r="C149" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="39" t="s">
+      <c r="D149" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E149" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E149" s="44">
-        <v>1</v>
-      </c>
-      <c r="F149" s="41" t="s">
+      <c r="F149" s="35">
+        <v>1</v>
+      </c>
+      <c r="G149" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G149" s="33" t="s">
+      <c r="H149" t="s">
         <v>42</v>
       </c>
-      <c r="H149" s="33" t="s">
+      <c r="I149" t="s">
         <v>5</v>
       </c>
-      <c r="I149" s="41" t="s">
+      <c r="J149" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J149" s="42"/>
-      <c r="K149" s="42"/>
-      <c r="L149" s="41"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="55"/>
-      <c r="C150" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D150" s="43" t="s">
+      <c r="K149" s="34"/>
+      <c r="L149" s="34"/>
+      <c r="M149" s="33"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="41"/>
+      <c r="D150" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E150" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E150" s="44">
-        <v>1</v>
-      </c>
-      <c r="F150" s="43" t="s">
+      <c r="F150" s="35">
+        <v>1</v>
+      </c>
+      <c r="G150" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G150" s="33" t="s">
+      <c r="H150" t="s">
         <v>6</v>
       </c>
-      <c r="I150" s="41" t="s">
+      <c r="J150" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J150" s="42"/>
-      <c r="K150" s="42"/>
-      <c r="L150" s="41"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
-      <c r="C151" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D151" s="43" t="s">
+      <c r="K150" s="34"/>
+      <c r="L150" s="34"/>
+      <c r="M150" s="33"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="41"/>
+      <c r="D151" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E151" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E151" s="44">
-        <v>1</v>
-      </c>
-      <c r="F151" s="43" t="s">
+      <c r="F151" s="35">
+        <v>1</v>
+      </c>
+      <c r="G151" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G151" s="33" t="s">
+      <c r="H151" t="s">
         <v>91</v>
       </c>
-      <c r="I151" s="43" t="s">
+      <c r="J151" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
-      <c r="C152" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D152" s="43" t="s">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="D152" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E152" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E152" s="44">
-        <v>1</v>
-      </c>
-      <c r="F152" s="43" t="s">
+      <c r="F152" s="35">
+        <v>1</v>
+      </c>
+      <c r="G152" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G152" s="33" t="s">
+      <c r="H152" t="s">
         <v>63</v>
       </c>
-      <c r="I152" s="43" t="s">
+      <c r="J152" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="55"/>
-      <c r="C153" s="39"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="55"/>
-      <c r="B154" s="1" t="s">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="41"/>
+      <c r="D153" s="33"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="41"/>
+      <c r="B154" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C154" t="s">
         <v>31</v>
       </c>
-      <c r="C154" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D154" s="39" t="s">
+      <c r="D154" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E154" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E154" s="44">
-        <v>1</v>
-      </c>
-      <c r="F154" s="41" t="s">
+      <c r="F154" s="35">
+        <v>1</v>
+      </c>
+      <c r="G154" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G154" s="33" t="s">
+      <c r="H154" t="s">
         <v>42</v>
       </c>
-      <c r="H154" s="33" t="s">
+      <c r="I154" t="s">
         <v>5</v>
       </c>
-      <c r="I154" s="41" t="s">
+      <c r="J154" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J154" s="42"/>
-      <c r="K154" s="42"/>
-      <c r="L154" s="41"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
-      <c r="C155" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D155" s="43" t="s">
+      <c r="K154" s="34"/>
+      <c r="L154" s="34"/>
+      <c r="M154" s="33"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="41"/>
+      <c r="D155" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E155" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E155" s="44">
-        <v>1</v>
-      </c>
-      <c r="F155" s="43" t="s">
+      <c r="F155" s="35">
+        <v>1</v>
+      </c>
+      <c r="G155" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G155" s="33" t="s">
+      <c r="H155" t="s">
         <v>6</v>
       </c>
-      <c r="I155" s="41" t="s">
+      <c r="J155" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J155" s="42"/>
-      <c r="K155" s="42"/>
-      <c r="L155" s="41"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
-      <c r="C156" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D156" s="43" t="s">
+      <c r="K155" s="34"/>
+      <c r="L155" s="34"/>
+      <c r="M155" s="33"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="41"/>
+      <c r="D156" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E156" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E156" s="44">
-        <v>1</v>
-      </c>
-      <c r="F156" s="43" t="s">
+      <c r="F156" s="35">
+        <v>1</v>
+      </c>
+      <c r="G156" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G156" s="33" t="s">
+      <c r="H156" t="s">
         <v>91</v>
       </c>
-      <c r="I156" s="43" t="s">
+      <c r="J156" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
-      <c r="C157" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D157" s="43" t="s">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="41"/>
+      <c r="D157" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E157" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E157" s="44">
-        <v>1</v>
-      </c>
-      <c r="F157" s="43" t="s">
+      <c r="F157" s="35">
+        <v>1</v>
+      </c>
+      <c r="G157" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G157" s="33" t="s">
+      <c r="H157" t="s">
         <v>63</v>
       </c>
-      <c r="I157" s="43" t="s">
+      <c r="J157" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
-      <c r="C158" s="39"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
-      <c r="C159" s="39" t="s">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="41"/>
+      <c r="D158" s="33"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="41"/>
+      <c r="D159" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E159" s="44">
+      <c r="F159" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
-      <c r="C160" s="39" t="s">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="41"/>
+      <c r="D160" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E160" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="55"/>
-      <c r="C161" s="39" t="s">
+      <c r="F160" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+      <c r="D161" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="55"/>
-      <c r="C162" s="39" t="s">
+      <c r="F161" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="41"/>
+      <c r="D162" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E162" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="55"/>
-      <c r="C163" s="39" t="s">
+      <c r="F162" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="41"/>
+      <c r="D163" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E163" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="55"/>
-      <c r="C164" s="39" t="s">
+      <c r="F163" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="41"/>
+      <c r="D164" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E164" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="55"/>
-      <c r="C165" s="39"/>
-    </row>
-    <row r="166" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="56"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="47"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="49"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="34"/>
-      <c r="H166" s="34"/>
-      <c r="I166" s="48"/>
-      <c r="J166" s="50"/>
-      <c r="K166" s="50"/>
-      <c r="L166" s="48"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="54" t="s">
+      <c r="F164" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="41"/>
+      <c r="D165" s="33"/>
+    </row>
+    <row r="166" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="42"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="38"/>
+      <c r="G166" s="38"/>
+      <c r="J166" s="38"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="39"/>
+      <c r="M166" s="38"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" t="s">
         <v>33</v>
       </c>
-      <c r="C167" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D167" s="39" t="s">
+      <c r="D167" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E167" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="44">
-        <v>1</v>
-      </c>
-      <c r="F167" s="41" t="s">
+      <c r="F167" s="35">
+        <v>1</v>
+      </c>
+      <c r="G167" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G167" s="33" t="s">
+      <c r="H167" t="s">
         <v>42</v>
       </c>
-      <c r="H167" s="33" t="s">
+      <c r="I167" t="s">
         <v>5</v>
       </c>
-      <c r="I167" s="41" t="s">
+      <c r="J167" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J167" s="42"/>
-      <c r="K167" s="42"/>
-      <c r="L167" s="41"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="55"/>
-      <c r="C168" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D168" s="43" t="s">
+      <c r="K167" s="34"/>
+      <c r="L167" s="34"/>
+      <c r="M167" s="33"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="41"/>
+      <c r="D168" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E168" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E168" s="44">
-        <v>1</v>
-      </c>
-      <c r="F168" s="43" t="s">
+      <c r="F168" s="35">
+        <v>1</v>
+      </c>
+      <c r="G168" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G168" s="33" t="s">
+      <c r="H168" t="s">
         <v>6</v>
       </c>
-      <c r="I168" s="41" t="s">
+      <c r="J168" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J168" s="42"/>
-      <c r="K168" s="42"/>
-      <c r="L168" s="41"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="55"/>
-      <c r="C169" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D169" s="43" t="s">
+      <c r="K168" s="34"/>
+      <c r="L168" s="34"/>
+      <c r="M168" s="33"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="41"/>
+      <c r="D169" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E169" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E169" s="44">
-        <v>1</v>
-      </c>
-      <c r="F169" s="43" t="s">
+      <c r="F169" s="35">
+        <v>1</v>
+      </c>
+      <c r="G169" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G169" s="33" t="s">
+      <c r="H169" t="s">
         <v>91</v>
       </c>
-      <c r="I169" s="43" t="s">
+      <c r="J169" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="55"/>
-      <c r="C170" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D170" s="43" t="s">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="41"/>
+      <c r="D170" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E170" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E170" s="44">
-        <v>1</v>
-      </c>
-      <c r="F170" s="43" t="s">
+      <c r="F170" s="35">
+        <v>1</v>
+      </c>
+      <c r="G170" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G170" s="33" t="s">
+      <c r="H170" t="s">
         <v>63</v>
       </c>
-      <c r="I170" s="43" t="s">
+      <c r="J170" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="55"/>
-      <c r="C171" s="39"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="55"/>
-      <c r="B172" s="1" t="s">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="41"/>
+      <c r="D171" s="33"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="41"/>
+      <c r="B172" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172" t="s">
         <v>34</v>
       </c>
-      <c r="C172" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D172" s="39" t="s">
+      <c r="D172" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E172" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E172" s="44">
-        <v>1</v>
-      </c>
-      <c r="F172" s="41" t="s">
+      <c r="F172" s="35">
+        <v>1</v>
+      </c>
+      <c r="G172" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G172" s="33" t="s">
+      <c r="H172" t="s">
         <v>42</v>
       </c>
-      <c r="H172" s="33" t="s">
+      <c r="I172" t="s">
         <v>5</v>
       </c>
-      <c r="I172" s="41" t="s">
+      <c r="J172" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J172" s="42"/>
-      <c r="K172" s="42"/>
-      <c r="L172" s="41"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="55"/>
-      <c r="C173" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D173" s="43" t="s">
+      <c r="K172" s="34"/>
+      <c r="L172" s="34"/>
+      <c r="M172" s="33"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="41"/>
+      <c r="D173" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E173" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E173" s="44">
-        <v>1</v>
-      </c>
-      <c r="F173" s="43" t="s">
+      <c r="F173" s="35">
+        <v>1</v>
+      </c>
+      <c r="G173" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G173" s="33" t="s">
+      <c r="H173" t="s">
         <v>6</v>
       </c>
-      <c r="I173" s="41" t="s">
+      <c r="J173" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J173" s="42"/>
-      <c r="K173" s="42"/>
-      <c r="L173" s="41"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="55"/>
-      <c r="C174" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D174" s="43" t="s">
+      <c r="K173" s="34"/>
+      <c r="L173" s="34"/>
+      <c r="M173" s="33"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="41"/>
+      <c r="D174" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E174" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E174" s="44">
-        <v>1</v>
-      </c>
-      <c r="F174" s="43" t="s">
+      <c r="F174" s="35">
+        <v>1</v>
+      </c>
+      <c r="G174" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G174" s="33" t="s">
+      <c r="H174" t="s">
         <v>91</v>
       </c>
-      <c r="I174" s="43" t="s">
+      <c r="J174" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="55"/>
-      <c r="C175" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D175" s="43" t="s">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="41"/>
+      <c r="D175" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E175" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E175" s="44">
-        <v>1</v>
-      </c>
-      <c r="F175" s="43" t="s">
+      <c r="F175" s="35">
+        <v>1</v>
+      </c>
+      <c r="G175" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G175" s="33" t="s">
+      <c r="H175" t="s">
         <v>63</v>
       </c>
-      <c r="I175" s="43" t="s">
+      <c r="J175" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="55"/>
-      <c r="C176" s="39"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="55"/>
-      <c r="B177" s="1" t="s">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="41"/>
+      <c r="D176" s="33"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="41"/>
+      <c r="B177" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C177" t="s">
         <v>35</v>
       </c>
-      <c r="C177" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D177" s="39" t="s">
+      <c r="D177" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E177" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E177" s="44">
-        <v>1</v>
-      </c>
-      <c r="F177" s="41" t="s">
+      <c r="F177" s="35">
+        <v>1</v>
+      </c>
+      <c r="G177" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G177" s="33" t="s">
+      <c r="H177" t="s">
         <v>42</v>
       </c>
-      <c r="H177" s="33" t="s">
+      <c r="I177" t="s">
         <v>5</v>
       </c>
-      <c r="I177" s="41" t="s">
+      <c r="J177" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J177" s="42"/>
-      <c r="K177" s="42"/>
-      <c r="L177" s="41"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="C178" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D178" s="43" t="s">
+      <c r="K177" s="34"/>
+      <c r="L177" s="34"/>
+      <c r="M177" s="33"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="41"/>
+      <c r="D178" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E178" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E178" s="44">
-        <v>1</v>
-      </c>
-      <c r="F178" s="43" t="s">
+      <c r="F178" s="35">
+        <v>1</v>
+      </c>
+      <c r="G178" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G178" s="33" t="s">
+      <c r="H178" t="s">
         <v>6</v>
       </c>
-      <c r="I178" s="41" t="s">
+      <c r="J178" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J178" s="42"/>
-      <c r="K178" s="42"/>
-      <c r="L178" s="41"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="C179" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D179" s="43" t="s">
+      <c r="K178" s="34"/>
+      <c r="L178" s="34"/>
+      <c r="M178" s="33"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="41"/>
+      <c r="D179" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E179" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E179" s="44">
-        <v>1</v>
-      </c>
-      <c r="F179" s="43" t="s">
+      <c r="F179" s="35">
+        <v>1</v>
+      </c>
+      <c r="G179" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G179" s="33" t="s">
+      <c r="H179" t="s">
         <v>91</v>
       </c>
-      <c r="I179" s="43" t="s">
+      <c r="J179" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="C180" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D180" s="43" t="s">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="41"/>
+      <c r="D180" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E180" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E180" s="44">
-        <v>1</v>
-      </c>
-      <c r="F180" s="43" t="s">
+      <c r="F180" s="35">
+        <v>1</v>
+      </c>
+      <c r="G180" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G180" s="33" t="s">
+      <c r="H180" t="s">
         <v>63</v>
       </c>
-      <c r="I180" s="43" t="s">
+      <c r="J180" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="55"/>
-      <c r="C181" s="39"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="55"/>
-      <c r="B182" s="1" t="s">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="41"/>
+      <c r="D181" s="33"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="41"/>
+      <c r="B182" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C182" t="s">
         <v>37</v>
       </c>
-      <c r="C182" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D182" s="39" t="s">
+      <c r="D182" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E182" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E182" s="44">
-        <v>1</v>
-      </c>
-      <c r="F182" s="41" t="s">
+      <c r="F182" s="35">
+        <v>1</v>
+      </c>
+      <c r="G182" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G182" s="33" t="s">
+      <c r="H182" t="s">
         <v>42</v>
       </c>
-      <c r="H182" s="33" t="s">
+      <c r="I182" t="s">
         <v>5</v>
       </c>
-      <c r="I182" s="41" t="s">
+      <c r="J182" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J182" s="42"/>
-      <c r="K182" s="42"/>
-      <c r="L182" s="41"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="55"/>
-      <c r="C183" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D183" s="43" t="s">
+      <c r="K182" s="34"/>
+      <c r="L182" s="34"/>
+      <c r="M182" s="33"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="41"/>
+      <c r="D183" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E183" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E183" s="44">
-        <v>1</v>
-      </c>
-      <c r="F183" s="43" t="s">
+      <c r="F183" s="35">
+        <v>1</v>
+      </c>
+      <c r="G183" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G183" s="33" t="s">
+      <c r="H183" t="s">
         <v>6</v>
       </c>
-      <c r="I183" s="41" t="s">
+      <c r="J183" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J183" s="42"/>
-      <c r="K183" s="42"/>
-      <c r="L183" s="41"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="55"/>
-      <c r="C184" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D184" s="43" t="s">
+      <c r="K183" s="34"/>
+      <c r="L183" s="34"/>
+      <c r="M183" s="33"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="41"/>
+      <c r="D184" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E184" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E184" s="44">
-        <v>1</v>
-      </c>
-      <c r="F184" s="43" t="s">
+      <c r="F184" s="35">
+        <v>1</v>
+      </c>
+      <c r="G184" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G184" s="33" t="s">
+      <c r="H184" t="s">
         <v>91</v>
       </c>
-      <c r="I184" s="43" t="s">
+      <c r="J184" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="55"/>
-      <c r="C185" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D185" s="43" t="s">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="41"/>
+      <c r="D185" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E185" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E185" s="44">
-        <v>1</v>
-      </c>
-      <c r="F185" s="43" t="s">
+      <c r="F185" s="35">
+        <v>1</v>
+      </c>
+      <c r="G185" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G185" s="33" t="s">
+      <c r="H185" t="s">
         <v>63</v>
       </c>
-      <c r="I185" s="43" t="s">
+      <c r="J185" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
-      <c r="C186" s="39"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="55"/>
-      <c r="C187" s="39" t="s">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="41"/>
+      <c r="D186" s="33"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="41"/>
+      <c r="D187" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E187" s="44">
+      <c r="F187" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="55"/>
-      <c r="C188" s="39" t="s">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="41"/>
+      <c r="D188" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E188" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="55"/>
-      <c r="C189" s="39" t="s">
+      <c r="F188" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="41"/>
+      <c r="D189" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E189" s="44">
-        <v>1</v>
-      </c>
-      <c r="G189" s="33" t="s">
+      <c r="F189" s="35">
+        <v>1</v>
+      </c>
+      <c r="H189" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="55"/>
-      <c r="C190" s="39" t="s">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="41"/>
+      <c r="D190" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E190" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="55"/>
-      <c r="C191" s="39" t="s">
+      <c r="F190" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="41"/>
+      <c r="D191" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E191" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="55"/>
-      <c r="C192" s="39" t="s">
+      <c r="F191" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="41"/>
+      <c r="D192" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E192" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="56"/>
-      <c r="C193" s="47"/>
-      <c r="D193" s="48"/>
-      <c r="E193" s="49"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="34"/>
-      <c r="I193" s="48"/>
-      <c r="J193" s="50"/>
-      <c r="K193" s="50"/>
-      <c r="L193" s="48"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="54" t="s">
+      <c r="F192" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="42"/>
+      <c r="B193" s="57"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="38"/>
+      <c r="G193" s="38"/>
+      <c r="J193" s="38"/>
+      <c r="K193" s="39"/>
+      <c r="L193" s="39"/>
+      <c r="M193" s="38"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="55"/>
+      <c r="C194" t="s">
         <v>70</v>
       </c>
-      <c r="C194" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D194" s="39" t="s">
+      <c r="D194" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E194" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E194" s="44">
-        <v>1</v>
-      </c>
-      <c r="F194" s="41" t="s">
+      <c r="F194" s="35">
+        <v>1</v>
+      </c>
+      <c r="G194" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G194" s="33" t="s">
+      <c r="H194" t="s">
         <v>42</v>
       </c>
-      <c r="H194" s="33" t="s">
+      <c r="I194" t="s">
         <v>5</v>
       </c>
-      <c r="I194" s="41" t="s">
+      <c r="J194" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J194" s="42"/>
-      <c r="K194" s="42"/>
-      <c r="L194" s="41"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="55"/>
-      <c r="C195" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D195" s="43" t="s">
+      <c r="K194" s="34"/>
+      <c r="L194" s="34"/>
+      <c r="M194" s="33"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" s="41"/>
+      <c r="D195" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E195" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E195" s="44">
-        <v>1</v>
-      </c>
-      <c r="F195" s="43" t="s">
+      <c r="F195" s="35">
+        <v>1</v>
+      </c>
+      <c r="G195" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G195" s="33" t="s">
+      <c r="H195" t="s">
         <v>6</v>
       </c>
-      <c r="I195" s="41" t="s">
+      <c r="J195" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J195" s="42"/>
-      <c r="K195" s="42"/>
-      <c r="L195" s="41"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="55"/>
-      <c r="C196" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D196" s="43" t="s">
+      <c r="K195" s="34"/>
+      <c r="L195" s="34"/>
+      <c r="M195" s="33"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" s="41"/>
+      <c r="D196" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E196" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E196" s="44">
-        <v>1</v>
-      </c>
-      <c r="F196" s="43" t="s">
+      <c r="F196" s="35">
+        <v>1</v>
+      </c>
+      <c r="G196" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G196" s="33" t="s">
+      <c r="H196" t="s">
         <v>7</v>
       </c>
-      <c r="I196" s="41" t="s">
+      <c r="J196" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="J196" s="42"/>
-      <c r="K196" s="42"/>
-      <c r="L196" s="41"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="55"/>
-      <c r="C197" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D197" s="43" t="s">
+      <c r="K196" s="34"/>
+      <c r="L196" s="34"/>
+      <c r="M196" s="33"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" s="41"/>
+      <c r="D197" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E197" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="44">
-        <v>1</v>
-      </c>
-      <c r="F197" s="43" t="s">
+      <c r="F197" s="35">
+        <v>1</v>
+      </c>
+      <c r="G197" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G197" s="33" t="s">
+      <c r="H197" t="s">
         <v>91</v>
       </c>
-      <c r="I197" s="43" t="s">
+      <c r="J197" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="55"/>
-      <c r="C198" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D198" s="43" t="s">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" s="41"/>
+      <c r="D198" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E198" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E198" s="44">
-        <v>1</v>
-      </c>
-      <c r="F198" s="43" t="s">
+      <c r="F198" s="35">
+        <v>1</v>
+      </c>
+      <c r="G198" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G198" s="33" t="s">
+      <c r="H198" t="s">
         <v>63</v>
       </c>
-      <c r="I198" s="43" t="s">
+      <c r="J198" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="55"/>
-      <c r="C199" s="39"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="55"/>
-      <c r="C200" s="39" t="s">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" s="41"/>
+      <c r="D199" s="33"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" s="41"/>
+      <c r="D200" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E200" s="44">
+      <c r="F200" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="55"/>
-      <c r="C201" s="39" t="s">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" s="41"/>
+      <c r="D201" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E201" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="55"/>
-      <c r="C202" s="39" t="s">
+      <c r="F201" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" s="41"/>
+      <c r="D202" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E202" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="55"/>
-      <c r="C203" s="39" t="s">
+      <c r="F202" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" s="41"/>
+      <c r="D203" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E203" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="55"/>
-      <c r="C204" s="39" t="s">
+      <c r="F203" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" s="41"/>
+      <c r="D204" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E204" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="56"/>
-      <c r="C205" s="47" t="s">
+      <c r="F204" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="42"/>
+      <c r="B205" s="57"/>
+      <c r="D205" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D205" s="48"/>
-      <c r="E205" s="49">
-        <v>1</v>
-      </c>
-      <c r="F205" s="48"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="34"/>
-      <c r="I205" s="48"/>
-      <c r="J205" s="50"/>
-      <c r="K205" s="50"/>
-      <c r="L205" s="48"/>
+      <c r="E205" s="38"/>
+      <c r="F205" s="38">
+        <v>1</v>
+      </c>
+      <c r="G205" s="38"/>
+      <c r="J205" s="38"/>
+      <c r="K205" s="39"/>
+      <c r="L205" s="39"/>
+      <c r="M205" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6054,7 +6172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6098,15 +6216,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B4" t="s">
@@ -6132,76 +6250,61 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5">
         <v>38</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32">
+      <c r="H5">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32">
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32">
+      <c r="H6">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8">
         <v>25</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8">
         <v>38</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8">
         <v>25</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32">
+      <c r="H8">
         <v>121</v>
       </c>
     </row>
@@ -6211,7 +6314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6242,7 +6345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -6251,67 +6354,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>25</v>
       </c>
       <c r="G4" t="s">
@@ -6319,16 +6422,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>25</v>
       </c>
       <c r="G5" t="s">
@@ -6336,1410 +6439,1393 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="57" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="43"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="67"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="67"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="67"/>
+      <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="67"/>
+      <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17" t="s">
+      <c r="A44" s="52"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17" t="s">
+      <c r="A45" s="52"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17" t="s">
+      <c r="A46" s="52"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="52"/>
+      <c r="B48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="67"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17" t="s">
+      <c r="A50" s="52"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="18"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="16" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="67"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17" t="s">
+      <c r="A56" s="52"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="67"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="18"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17" t="s">
+      <c r="A58" s="52"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="18"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17" t="s">
+      <c r="A59" s="52"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="18"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17" t="s">
+      <c r="A60" s="52"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="18"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="66"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="67"/>
+      <c r="D62" s="43"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17" t="s">
+      <c r="A63" s="49"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="67"/>
+      <c r="D63" s="43"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17" t="s">
+      <c r="A64" s="49"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="18"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="18"/>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17" t="s">
+      <c r="A66" s="49"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="18"/>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17" t="s">
+      <c r="A67" s="49"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="18"/>
+      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="16" t="s">
+      <c r="A69" s="49"/>
+      <c r="B69" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="67"/>
+      <c r="D69" s="43"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17" t="s">
+      <c r="A70" s="49"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="67"/>
+      <c r="D70" s="43"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="18"/>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17" t="s">
+      <c r="A72" s="49"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="18"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17" t="s">
+      <c r="A73" s="49"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="18"/>
+      <c r="D73" s="17"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17" t="s">
+      <c r="A74" s="49"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="18"/>
+      <c r="D74" s="17"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="18"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="49"/>
+      <c r="B76" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="67"/>
+      <c r="D76" s="43"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17" t="s">
+      <c r="A77" s="49"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="67"/>
+      <c r="D77" s="43"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17" t="s">
+      <c r="A78" s="49"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="18"/>
+      <c r="D78" s="17"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17" t="s">
+      <c r="A79" s="49"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="18"/>
+      <c r="D79" s="17"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17" t="s">
+      <c r="A80" s="49"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="18"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17" t="s">
+      <c r="A81" s="49"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="18"/>
+      <c r="D81" s="17"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="18"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
-      <c r="B83" s="16" t="s">
+      <c r="A83" s="49"/>
+      <c r="B83" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="67"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17" t="s">
+      <c r="A84" s="49"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="67"/>
+      <c r="D84" s="43"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17" t="s">
+      <c r="A85" s="49"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="18"/>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17" t="s">
+      <c r="A86" s="49"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="18"/>
+      <c r="D86" s="17"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17" t="s">
+      <c r="A87" s="49"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D87" s="18"/>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17" t="s">
+      <c r="A88" s="49"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="18"/>
+      <c r="D88" s="17"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="63"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="18"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="64" t="s">
+      <c r="A90" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D90" s="67"/>
+      <c r="D90" s="43"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="67"/>
+      <c r="D91" s="43"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="17" t="s">
+      <c r="A92" s="52"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="18"/>
+      <c r="D92" s="17"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17" t="s">
+      <c r="A93" s="52"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="18"/>
+      <c r="D93" s="17"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17" t="s">
+      <c r="A94" s="52"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="18"/>
+      <c r="D94" s="17"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="18"/>
+      <c r="D95" s="17"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="65"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="18"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
-      <c r="B97" s="16" t="s">
+      <c r="A97" s="52"/>
+      <c r="B97" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="67"/>
+      <c r="D97" s="43"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="17" t="s">
+      <c r="A98" s="52"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="67"/>
+      <c r="D98" s="43"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="65"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17" t="s">
+      <c r="A99" s="52"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="18"/>
+      <c r="D99" s="17"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="65"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="17" t="s">
+      <c r="A100" s="52"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="18"/>
+      <c r="D100" s="17"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="17" t="s">
+      <c r="A101" s="52"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="18"/>
+      <c r="D101" s="17"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="18"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
-      <c r="B103" s="16" t="s">
+      <c r="A103" s="52"/>
+      <c r="B103" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="67"/>
+      <c r="D103" s="43"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="17" t="s">
+      <c r="A104" s="52"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="67"/>
+      <c r="D104" s="43"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="17" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="18"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="65"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="17" t="s">
+      <c r="A106" s="52"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="18"/>
+      <c r="D106" s="17"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="65"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="17" t="s">
+      <c r="A107" s="52"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="18"/>
+      <c r="D107" s="17"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="65"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="18"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="17"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="65"/>
-      <c r="B109" s="16" t="s">
+      <c r="A109" s="52"/>
+      <c r="B109" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D109" s="67"/>
+      <c r="D109" s="43"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="17" t="s">
+      <c r="A110" s="52"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="67"/>
+      <c r="D110" s="43"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="65"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="17" t="s">
+      <c r="A111" s="52"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="18"/>
+      <c r="D111" s="17"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="17" t="s">
+      <c r="A112" s="52"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="18"/>
+      <c r="D112" s="17"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="17" t="s">
+      <c r="A113" s="52"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="18"/>
+      <c r="D113" s="17"/>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="66"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="18"/>
+      <c r="A114" s="53"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="17"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="64" t="s">
+      <c r="A115" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D115" s="67"/>
+      <c r="D115" s="43"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="65"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="17" t="s">
+      <c r="A116" s="52"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="67"/>
+      <c r="D116" s="43"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="65"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="17" t="s">
+      <c r="A117" s="52"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="18"/>
+      <c r="D117" s="17"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="65"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="17" t="s">
+      <c r="A118" s="52"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D118" s="18"/>
+      <c r="D118" s="17"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="17" t="s">
+      <c r="A119" s="52"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D119" s="18"/>
+      <c r="D119" s="17"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="65"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="17" t="s">
+      <c r="A120" s="52"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="18"/>
+      <c r="D120" s="17"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="65"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="17" t="s">
+      <c r="A121" s="52"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D121" s="18"/>
+      <c r="D121" s="17"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="65"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="18"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="17"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="65"/>
-      <c r="B123" s="16" t="s">
+      <c r="A123" s="52"/>
+      <c r="B123" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D123" s="67"/>
+      <c r="D123" s="43"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="65"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="17" t="s">
+      <c r="A124" s="52"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="67"/>
+      <c r="D124" s="43"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="65"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="17" t="s">
+      <c r="A125" s="52"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="18"/>
+      <c r="D125" s="17"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="65"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="17" t="s">
+      <c r="A126" s="52"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D126" s="18"/>
+      <c r="D126" s="17"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="65"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="17" t="s">
+      <c r="A127" s="52"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D127" s="18"/>
+      <c r="D127" s="17"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="65"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="17" t="s">
+      <c r="A128" s="52"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="18"/>
+      <c r="D128" s="17"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="65"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="17" t="s">
+      <c r="A129" s="52"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="18"/>
+      <c r="D129" s="17"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="65"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="18"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="17"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="65"/>
-      <c r="B131" s="16" t="s">
+      <c r="A131" s="52"/>
+      <c r="B131" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D131" s="67"/>
+      <c r="D131" s="43"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="65"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="17" t="s">
+      <c r="A132" s="52"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="67"/>
+      <c r="D132" s="43"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="65"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="17" t="s">
+      <c r="A133" s="52"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="18"/>
+      <c r="D133" s="17"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="65"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="17" t="s">
+      <c r="A134" s="52"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D134" s="18"/>
+      <c r="D134" s="17"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="65"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="17" t="s">
+      <c r="A135" s="52"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D135" s="18"/>
+      <c r="D135" s="17"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="65"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="18"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="17"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="65"/>
-      <c r="B137" s="16" t="s">
+      <c r="A137" s="52"/>
+      <c r="B137" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D137" s="67"/>
+      <c r="D137" s="43"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="65"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="17" t="s">
+      <c r="A138" s="52"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="67"/>
+      <c r="D138" s="43"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="65"/>
-      <c r="B139" s="16"/>
-      <c r="C139" s="17" t="s">
+      <c r="A139" s="52"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="18"/>
+      <c r="D139" s="17"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="65"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="17" t="s">
+      <c r="A140" s="52"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D140" s="18"/>
+      <c r="D140" s="17"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="65"/>
-      <c r="B141" s="16"/>
-      <c r="C141" s="17" t="s">
+      <c r="A141" s="52"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D141" s="18"/>
+      <c r="D141" s="17"/>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="66"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="18"/>
+      <c r="A142" s="53"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="17"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="64" t="s">
+      <c r="A143" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D143" s="67"/>
+      <c r="D143" s="43"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="65"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="17" t="s">
+      <c r="A144" s="52"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D144" s="67"/>
+      <c r="D144" s="43"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="65"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="17" t="s">
+      <c r="A145" s="52"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="18"/>
+      <c r="D145" s="17"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="65"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="17" t="s">
+      <c r="A146" s="52"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D146" s="18"/>
+      <c r="D146" s="17"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="65"/>
-      <c r="B147" s="16"/>
-      <c r="C147" s="17" t="s">
+      <c r="A147" s="52"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D147" s="18"/>
+      <c r="D147" s="17"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="65"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="18"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="17"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="65"/>
-      <c r="B149" s="16" t="s">
+      <c r="A149" s="52"/>
+      <c r="B149" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D149" s="67"/>
+      <c r="D149" s="43"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="65"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="17" t="s">
+      <c r="A150" s="52"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="67"/>
+      <c r="D150" s="43"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="65"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="17" t="s">
+      <c r="A151" s="52"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="18"/>
+      <c r="D151" s="17"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="65"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="17" t="s">
+      <c r="A152" s="52"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D152" s="18"/>
+      <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="65"/>
-      <c r="B153" s="16"/>
-      <c r="C153" s="17" t="s">
+      <c r="A153" s="52"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D153" s="18"/>
+      <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="65"/>
-      <c r="B154" s="16"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="18"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="65"/>
-      <c r="B155" s="16" t="s">
+      <c r="A155" s="52"/>
+      <c r="B155" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D155" s="67"/>
+      <c r="D155" s="43"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="65"/>
-      <c r="B156" s="16"/>
-      <c r="C156" s="17" t="s">
+      <c r="A156" s="52"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="67"/>
+      <c r="D156" s="43"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="65"/>
-      <c r="B157" s="16"/>
-      <c r="C157" s="17" t="s">
+      <c r="A157" s="52"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="18"/>
+      <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="65"/>
-      <c r="B158" s="16"/>
-      <c r="C158" s="17" t="s">
+      <c r="A158" s="52"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D158" s="18"/>
+      <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="65"/>
-      <c r="B159" s="16"/>
-      <c r="C159" s="17" t="s">
+      <c r="A159" s="52"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="18"/>
+      <c r="D159" s="17"/>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="66"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="20"/>
-      <c r="D160" s="18"/>
+      <c r="A160" s="53"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="17"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="61" t="s">
+      <c r="A161" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D161" s="67"/>
+      <c r="D161" s="43"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="62"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="17" t="s">
+      <c r="A162" s="49"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="67"/>
+      <c r="D162" s="43"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="62"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="17" t="s">
+      <c r="A163" s="49"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D163" s="18"/>
+      <c r="D163" s="17"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="62"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="17" t="s">
+      <c r="A164" s="49"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D164" s="18"/>
+      <c r="D164" s="17"/>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="63"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="20" t="s">
+      <c r="A165" s="50"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D165" s="18"/>
+      <c r="D165" s="17"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="58" t="s">
+      <c r="A166" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="24"/>
-      <c r="C166" s="27" t="s">
+      <c r="B166" s="22"/>
+      <c r="C166" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="59"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="28" t="s">
+      <c r="A167" s="46"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="59"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="28" t="s">
+      <c r="A168" s="46"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="59"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="28" t="s">
+      <c r="A169" s="46"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="59"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="28" t="s">
+      <c r="A170" s="46"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="59"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="28" t="s">
+      <c r="A171" s="46"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="59"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="28" t="s">
+      <c r="A172" s="46"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="60"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="29" t="s">
+      <c r="A173" s="47"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="27" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D90:D91"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="A166:A173"/>
     <mergeCell ref="A161:A165"/>
@@ -7756,6 +7842,23 @@
     <mergeCell ref="D149:D150"/>
     <mergeCell ref="D115:D116"/>
     <mergeCell ref="D123:D124"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D55:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" orientation="portrait" r:id="rId1"/>
